--- a/biology/Botanique/Hypholoma/Hypholoma.xlsx
+++ b/biology/Botanique/Hypholoma/Hypholoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypholoma (les hypholomes) est un genre de champignons basidiomycètes de la famille des strophariacées.
-Leur nom est tiré du grec ûphos, "filament" et loma, "bord", en référence à la marge parfois frangée de leur cortine[1].
+Leur nom est tiré du grec ûphos, "filament" et loma, "bord", en référence à la marge parfois frangée de leur cortine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hypholomes présentent un chapeau ogival à l'état jeune, devenant galériculé en vieillissant. Ils ont des lames reliées par voile filaire qui relie le chapeau au pied quand ils sont jeunes.[précision nécessaire]
 Ils sont généralement grégaires.
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre comprend une vingtaine d'espèces assez proches, dont :
 Hypholoma acutum (Cooke) E. Horak 1971
@@ -594,7 +610,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Référence Index Fungorum : Hypholoma  (+ liste espèces) (+ MycoBank)
 Société Mycologique du Sedanais (étymologie des noms de genres)</t>
